--- a/Measurments.xlsx
+++ b/Measurments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9186ee6bb7c6f91/Documents/Education/EPL/Master/Q9/LINGI2241 - Architecture and performance of computer systems/ArchPerf-Projet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="8_{E463C0DE-2A15-4F52-A61B-602459DAA888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D10B58DC-70E4-4836-94A1-7C9A63A5162A}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{E463C0DE-2A15-4F52-A61B-602459DAA888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F92C2C81-BE41-4E95-B2ED-A6A36ACEA3E4}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{94D6772E-711D-4AA3-A535-9B37BDA0198D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="22">
   <si>
     <t>Mean</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Tout est en ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3  0      0 2360824  43892 905288    0    0   905    32  493  971  9  4 86  1  0</t>
   </si>
 </sst>
 </file>
@@ -505,30 +508,12 @@
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -537,26 +522,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,6 +543,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -674,6 +677,50 @@
         <a:xfrm>
           <a:off x="6118413" y="3529853"/>
           <a:ext cx="4530326" cy="1523999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>237429</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>180667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{779F9025-27C7-4D80-B0B8-96FD9A46E9E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="8662147"/>
+          <a:ext cx="5571429" cy="2466667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -982,625 +1029,625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A46984C-F36D-4F27-AFA3-D6B744403606}">
-  <dimension ref="B3:Z41"/>
+  <dimension ref="B3:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="30"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="35"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="36">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="21">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="36">
         <v>10</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="21">
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="36">
         <v>50</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="11">
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="30">
         <v>100</v>
       </c>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="4"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="32"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="26">
         <v>1</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27">
         <v>3</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1">
+      <c r="F6" s="27"/>
+      <c r="G6" s="27">
         <v>5</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="22">
+      <c r="H6" s="28"/>
+      <c r="I6" s="26">
         <v>1</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1">
+      <c r="J6" s="27"/>
+      <c r="K6" s="27">
         <v>3</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1">
+      <c r="L6" s="27"/>
+      <c r="M6" s="27">
         <v>5</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="22">
+      <c r="N6" s="28"/>
+      <c r="O6" s="26">
         <v>1</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1">
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27">
         <v>3</v>
       </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1">
+      <c r="R6" s="27"/>
+      <c r="S6" s="27">
         <v>5</v>
       </c>
-      <c r="T6" s="5"/>
-      <c r="U6" s="12">
+      <c r="T6" s="28"/>
+      <c r="U6" s="29">
         <v>1</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1">
+      <c r="V6" s="27"/>
+      <c r="W6" s="27">
         <v>3</v>
       </c>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1">
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27">
         <v>5</v>
       </c>
-      <c r="Z6" s="5"/>
+      <c r="Z6" s="28"/>
     </row>
     <row r="7" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z7" s="7" t="s">
+      <c r="C7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="16">
         <v>362</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="4">
         <v>871</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="4">
         <v>247</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="4">
         <v>1234</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="4">
         <v>399</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="5">
         <v>3042</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="16">
         <v>4446</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="4">
         <v>20241</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="4">
         <v>4819</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="4">
         <v>23382</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="4">
         <v>5477</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="5">
         <v>23458</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="16">
         <v>35402</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="4">
         <v>112076</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="4">
         <v>38448</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="4">
         <v>121321</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="4">
         <v>38756</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="5">
         <v>133763</v>
       </c>
-      <c r="U8" s="14">
+      <c r="U8" s="8">
         <v>67622</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="4">
         <v>227154</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="4">
         <v>72757</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X8" s="4">
         <v>261638</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Y8" s="4">
         <v>72649</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="Z8" s="5">
         <v>263012</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="17">
         <v>223</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>504</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>211</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>790</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>277</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="6">
         <v>1089</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="17">
         <v>1377</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>5982</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>1287</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>6173</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>1247</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="6">
         <v>6131</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="17">
         <v>7028</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="1">
         <v>33498</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="1">
         <v>7320</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="1">
         <v>32881</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="1">
         <v>7401</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="6">
         <v>36085</v>
       </c>
-      <c r="U9" s="15">
+      <c r="U9" s="9">
         <v>13755</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V9" s="1">
         <v>62016</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9" s="1">
         <v>17565</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="1">
         <v>74725</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y9" s="1">
         <v>16431</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="Z9" s="6">
         <v>74715</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="17">
         <v>755</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>1152</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>310</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>1962</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>493</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="6">
         <v>5261</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="17">
         <v>7317</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>36407</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>7791</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>45507</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>9759</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="6">
         <v>41802</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="17">
         <v>62650</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <v>198823</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="1">
         <v>70073</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <v>213749</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
         <v>70127</v>
       </c>
-      <c r="T10" s="10">
+      <c r="T10" s="6">
         <v>233704</v>
       </c>
-      <c r="U10" s="15">
+      <c r="U10" s="9">
         <v>119820</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10" s="1">
         <v>408213</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10" s="1">
         <v>127369</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10" s="1">
         <v>460315</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y10" s="1">
         <v>127965</v>
       </c>
-      <c r="Z10" s="10">
+      <c r="Z10" s="6">
         <v>486789</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="17">
         <v>31375</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>54459</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>871</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>119709</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>4332</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="6">
         <v>1903663</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="17">
         <v>3678776</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>102241691</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>5770179</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>183770711</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>8681112</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="6">
         <v>146576889</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="17">
         <v>359946715</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="1">
         <v>3171984556</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="1">
         <v>450347486</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="1">
         <v>3837698557</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="1">
         <v>455429506</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T11" s="6">
         <v>4678567081</v>
       </c>
-      <c r="U11" s="15">
+      <c r="U11" s="9">
         <v>1287390976</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V11" s="1">
         <v>13773252810</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W11" s="1">
         <v>1391628156</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="1">
         <v>17257038583</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Y11" s="1">
         <v>1438833512</v>
       </c>
-      <c r="Z11" s="10">
+      <c r="Z11" s="6">
         <v>19653913690</v>
       </c>
     </row>
     <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="15">
         <f>SQRT(C11)</f>
         <v>177.12989583918352</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="7">
         <f t="shared" ref="D12:Z12" si="0">SQRT(D11)</f>
         <v>233.36452172513285</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>29.512709126747414</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>345.98988424519001</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>65.817930687617334</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="18">
         <f t="shared" si="0"/>
         <v>1379.7329451745363</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="15">
         <f t="shared" si="0"/>
         <v>1918.0135557393749</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="7">
         <f t="shared" si="0"/>
         <v>10111.463346123546</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="7">
         <f t="shared" si="0"/>
         <v>2402.119688941415</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="7">
         <f t="shared" si="0"/>
         <v>13556.205626944437</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="7">
         <f t="shared" si="0"/>
         <v>2946.3726851842757</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="18">
         <f t="shared" si="0"/>
         <v>12106.894275577037</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="15">
         <f t="shared" si="0"/>
         <v>18972.261726004097</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="7">
         <f t="shared" si="0"/>
         <v>56320.374253017886</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="7">
         <f t="shared" si="0"/>
         <v>21221.392178648413</v>
       </c>
-      <c r="R12" s="13">
+      <c r="R12" s="7">
         <f t="shared" si="0"/>
         <v>61949.161067765883</v>
       </c>
-      <c r="S12" s="13">
+      <c r="S12" s="7">
         <f t="shared" si="0"/>
         <v>21340.794408831178</v>
       </c>
-      <c r="T12" s="26">
+      <c r="T12" s="18">
         <f t="shared" si="0"/>
         <v>68400.051761676325</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="7">
         <f t="shared" si="0"/>
         <v>35880.230991452663</v>
       </c>
-      <c r="V12" s="13">
+      <c r="V12" s="7">
         <f t="shared" si="0"/>
         <v>117359.50242737058</v>
       </c>
-      <c r="W12" s="13">
+      <c r="W12" s="7">
         <f t="shared" si="0"/>
         <v>37304.532646851374</v>
       </c>
-      <c r="X12" s="13">
+      <c r="X12" s="7">
         <f t="shared" si="0"/>
         <v>131366.04806037212</v>
       </c>
-      <c r="Y12" s="13">
+      <c r="Y12" s="7">
         <f t="shared" si="0"/>
         <v>37931.958979203802</v>
       </c>
-      <c r="Z12" s="13">
+      <c r="Z12" s="7">
         <f t="shared" si="0"/>
         <v>140192.41666366981</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1630,380 +1677,379 @@
     </row>
     <row r="28" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="36"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="25"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="20">
         <v>1</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="31">
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="20">
         <v>10</v>
       </c>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="31">
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="20">
         <v>50</v>
       </c>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="31">
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="20">
         <v>100</v>
       </c>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="33"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="22"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="26">
         <v>1</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1">
+      <c r="D31" s="27"/>
+      <c r="E31" s="27">
         <v>3</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1">
+      <c r="F31" s="27"/>
+      <c r="G31" s="27">
         <v>5</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="22">
+      <c r="H31" s="28"/>
+      <c r="I31" s="26">
         <v>1</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1">
+      <c r="J31" s="27"/>
+      <c r="K31" s="27">
         <v>3</v>
       </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1">
+      <c r="L31" s="27"/>
+      <c r="M31" s="27">
         <v>5</v>
       </c>
-      <c r="N31" s="5"/>
-      <c r="O31" s="22">
+      <c r="N31" s="28"/>
+      <c r="O31" s="26">
         <v>1</v>
       </c>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1">
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27">
         <v>3</v>
       </c>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1">
+      <c r="R31" s="27"/>
+      <c r="S31" s="27">
         <v>5</v>
       </c>
-      <c r="T31" s="5"/>
-      <c r="U31" s="12">
+      <c r="T31" s="28"/>
+      <c r="U31" s="29">
         <v>1</v>
       </c>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1">
+      <c r="V31" s="27"/>
+      <c r="W31" s="27">
         <v>3</v>
       </c>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1">
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27">
         <v>5</v>
       </c>
-      <c r="Z31" s="5"/>
+      <c r="Z31" s="28"/>
     </row>
     <row r="32" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O32" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="S32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="T32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="U32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="V32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="W32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="X32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z32" s="7" t="s">
+      <c r="C32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z32" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="9"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="5"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="10"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="6"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="10"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="6"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="10"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="6"/>
     </row>
     <row r="37" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="7"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="3"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="19" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="B29:Z29"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="O30:T30"/>
-    <mergeCell ref="U30:Z30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="U5:Z5"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="W6:X6"/>
@@ -2020,7 +2066,23 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I5:N5"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="B29:Z29"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="O30:T30"/>
+    <mergeCell ref="U30:Z30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
